--- a/Project-Functions.xlsx
+++ b/Project-Functions.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="62">
   <si>
     <t>Variable</t>
   </si>
@@ -62,7 +62,7 @@
     <t>P</t>
   </si>
   <si>
-    <t>1.08*P3 + P1n+P1s+P1e+P1w – (P2n+P2s+P2e+P2w)</t>
+    <t>1.08 * P3 + P1n + P1s + P1e + P1w - ( P2n + P2s + P2e + P2w )</t>
   </si>
   <si>
     <t>Natural pop increase + immigration – migration +- growth due to extra/not enough food</t>
@@ -131,7 +131,7 @@
     <t>P3</t>
   </si>
   <si>
-    <t>0.5R + P</t>
+    <t>0.5 * R + P</t>
   </si>
   <si>
     <t>Food Level</t>
@@ -140,7 +140,7 @@
     <t>F</t>
   </si>
   <si>
-    <t>Y + 0.75P + 0.25C</t>
+    <t>Y + 0.75 * P + 0.25 * C</t>
   </si>
   <si>
     <t>Food/Pop Ratio</t>
@@ -149,7 +149,7 @@
     <t>R</t>
   </si>
   <si>
-    <t>F – P</t>
+    <t>F - P</t>
   </si>
   <si>
     <t>Attractivity</t>
@@ -164,7 +164,7 @@
     <t>At1</t>
   </si>
   <si>
-    <t>W + 2R</t>
+    <t>W + 2 * R</t>
   </si>
   <si>
     <t>At2</t>
@@ -176,13 +176,16 @@
     <t>At3</t>
   </si>
   <si>
+    <t>W + Y</t>
+  </si>
+  <si>
     <t>Tile productivity</t>
   </si>
   <si>
     <t>Y</t>
   </si>
   <si>
-    <t>0.1 + (Tf + Tp) / 2</t>
+    <t>0.1 + ( Tf + Tp ) / 2</t>
   </si>
   <si>
     <t>farming</t>
@@ -191,7 +194,7 @@
     <t>Tf</t>
   </si>
   <si>
-    <t>Tf + 0.1 * 0.04P</t>
+    <t>Tf + 0.1 * 0.04 * P</t>
   </si>
   <si>
     <t>heavy plough</t>
@@ -200,7 +203,7 @@
     <t>Tp</t>
   </si>
   <si>
-    <t>Tp + 0.01 * 0.04P</t>
+    <t>Tp + 0.01 * 0.04 * P</t>
   </si>
   <si>
     <t>Terrain Type</t>
@@ -397,7 +400,7 @@
   <dimension ref="1:23"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
+      <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -641,9 +644,8 @@
       <c r="C17" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="E17" s="0" t="e">
-        <f aca="false">C22+C18</f>
-        <v>#VALUE!</v>
+      <c r="E17" s="0" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -651,13 +653,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -665,13 +667,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -679,13 +681,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -693,13 +695,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -707,13 +709,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -721,13 +723,13 @@
         <v>21</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/Project-Functions.xlsx
+++ b/Project-Functions.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t>Variable</t>
   </si>
@@ -29,109 +29,49 @@
     <t>Log Space</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Notes</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Variable in row 2-?. Constants in rows ?-?. Technologies in rows ?-end.</t>
-    </r>
-  </si>
-  <si>
-    <t>All variables (for matlab)</t>
-  </si>
-  <si>
     <t>Population</t>
   </si>
   <si>
     <t>P</t>
   </si>
   <si>
-    <t>1.08 * P3 + P1n + P1s + P1e + P1w - ( P2n + P2s + P2e + P2w )</t>
-  </si>
-  <si>
-    <t>Natural pop increase + immigration – migration +- growth due to extra/not enough food</t>
-  </si>
-  <si>
-    <t>syms P F T W Prod Farm Ox Horse Field Pt1 Pt2 Ft1 Farm1 Ox1 Horse1 Horse2 Field1 Field2  nP nF nT nW nProd nFarm nOx nHorse nField nPt1 nPt2 nFt1 nFarm1 nOx1 nHorse1 nHorse2 nField1 nField2 sP sF sT sW sProd sFarm sOx sHorse sField sPt1 sPt2 sFt1 sFarm1 sOx1 sHorse1 sHorse2 sField1 sField2 eP eF eT eW eProd eFarm eOx eHorse eField ePt1 ePt2 eFt1 eFarm1 eOx1 eHorse1 eHorse2 eField1 eField2 wP wF wT wW wProd wFarm wOx wHorse wField wPt1 wPt2 wFt1 wFarm1 wOx1 wHorse1 wHorse2 wField1 wField2</t>
-  </si>
-  <si>
-    <t>P1n</t>
-  </si>
-  <si>
-    <t>A + nP + W</t>
-  </si>
-  <si>
-    <t>P1s</t>
-  </si>
-  <si>
-    <t>A + sP + W</t>
-  </si>
-  <si>
-    <t>P1e</t>
-  </si>
-  <si>
-    <t>A + eP + W</t>
-  </si>
-  <si>
-    <t>The higher the better (TODO: Make it croplandArea * fertility)</t>
-  </si>
-  <si>
-    <t>P1w</t>
-  </si>
-  <si>
-    <t>A + wP + W</t>
-  </si>
-  <si>
-    <t>P2n</t>
-  </si>
-  <si>
-    <t>nA + P + nW</t>
-  </si>
-  <si>
-    <t>Weighted sum of other tech's. Weighted to their efficacy</t>
-  </si>
-  <si>
-    <t>P2s</t>
-  </si>
-  <si>
-    <t>sA + P + sW</t>
-  </si>
-  <si>
-    <t>(Chance of discovering the tech, based on population) + (Chance of tech spreading from neighbours) – (chance of forgetting tech)</t>
-  </si>
-  <si>
-    <t>P2e</t>
-  </si>
-  <si>
-    <t>eA + P + eW</t>
-  </si>
-  <si>
-    <t>P2w</t>
-  </si>
-  <si>
-    <t>wA + P + wA</t>
+    <t>P * 1.006 + P1 / 500 + P2 / 500 + P3 / 500 + P4 / 500 - ( P5 / 500 + P6 / 500 + P7 / 500 + P8 / 500 ) </t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>W + nP</t>
+  </si>
+  <si>
+    <t>Terrain Type</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>Is Not Water</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>W + sP</t>
   </si>
   <si>
     <t>P3</t>
   </si>
   <si>
-    <t>0.5 * R + P</t>
+    <t>W + eP</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>W + wP</t>
   </si>
   <si>
     <t>Food Level</t>
@@ -140,7 +80,7 @@
     <t>F</t>
   </si>
   <si>
-    <t>Y + 0.75 * P + 0.25 * C</t>
+    <t>Y + 0.25 * P + 0.75 * C</t>
   </si>
   <si>
     <t>Food/Pop Ratio</t>
@@ -158,25 +98,7 @@
     <t>A</t>
   </si>
   <si>
-    <t>At1 + At2 / 8 + At3</t>
-  </si>
-  <si>
-    <t>At1</t>
-  </si>
-  <si>
-    <t>W + 2 * R</t>
-  </si>
-  <si>
-    <t>At2</t>
-  </si>
-  <si>
-    <t>W + T</t>
-  </si>
-  <si>
-    <t>At3</t>
-  </si>
-  <si>
-    <t>W + Y</t>
+    <t>Y + R</t>
   </si>
   <si>
     <t>Tile productivity</t>
@@ -185,43 +107,37 @@
     <t>Y</t>
   </si>
   <si>
-    <t>0.1 + ( Tf + Tp ) / 2</t>
-  </si>
-  <si>
-    <t>farming</t>
-  </si>
-  <si>
-    <t>Tf</t>
-  </si>
-  <si>
-    <t>Tf + 0.1 * 0.04 * P</t>
-  </si>
-  <si>
-    <t>heavy plough</t>
-  </si>
-  <si>
-    <t>Tp</t>
-  </si>
-  <si>
-    <t>Tp + 0.01 * 0.04 * P</t>
-  </si>
-  <si>
-    <t>Terrain Type</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>Is Not Water</t>
-  </si>
-  <si>
-    <t>W</t>
+    <t>C / 25</t>
   </si>
   <si>
     <t>Cropland Area</t>
   </si>
   <si>
     <t>C</t>
+  </si>
+  <si>
+    <t>P5</t>
+  </si>
+  <si>
+    <t>nW + P</t>
+  </si>
+  <si>
+    <t>P6</t>
+  </si>
+  <si>
+    <t>sW + P</t>
+  </si>
+  <si>
+    <t>P7</t>
+  </si>
+  <si>
+    <t>eW + P</t>
+  </si>
+  <si>
+    <t>P8</t>
+  </si>
+  <si>
+    <t>wW + P</t>
   </si>
 </sst>
 </file>
@@ -339,7 +255,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -364,12 +280,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -397,10 +317,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:23"/>
+  <dimension ref="1:17"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
+      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -408,7 +328,7 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="4.30102040816327"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.4489795918367"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.0867346938776"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="63.6326530612245"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="83.6428571428571"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="81.5255102040816"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="71.2755102040816"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="109.59693877551"/>
@@ -429,12 +349,7 @@
       <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="F1" s="4"/>
       <c r="AMI1" s="0"/>
       <c r="AMJ1" s="0"/>
     </row>
@@ -443,68 +358,63 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="G2" s="7"/>
     </row>
     <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="B4" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="C4" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="B5" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="C5" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" s="8" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" s="9" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D6" s="0"/>
       <c r="E6" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G6" s="0"/>
       <c r="AMI6" s="0"/>
@@ -515,13 +425,10 @@
         <v>5</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -529,207 +436,110 @@
         <v>6</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>25</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="F8" s="10"/>
     </row>
     <row r="9" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
+      <c r="B9" s="8" t="s">
+        <v>19</v>
+      </c>
       <c r="C9" s="0" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
+      <c r="B10" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="C10" s="0" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
+      <c r="B11" s="0" t="s">
+        <v>25</v>
+      </c>
       <c r="C11" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="0" t="s">
-        <v>34</v>
+      <c r="B12" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C14" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C15" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="E15" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="0" t="s">
+    </row>
+    <row r="16" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C16" s="0" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" s="0" t="s">
+      <c r="E16" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="0" t="s">
+    </row>
+    <row r="17" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C17" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="E17" s="0" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="D23" s="0" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/Project-Functions.xlsx
+++ b/Project-Functions.xlsx
@@ -5,139 +5,144 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="810" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="981" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
-    <t>Variable</t>
-  </si>
-  <si>
-    <t>Symbol</t>
-  </si>
-  <si>
-    <t>Normal Space</t>
-  </si>
-  <si>
-    <t>Log Space</t>
-  </si>
-  <si>
-    <t>Population</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>P * 1.006 + P1 / 500 + P2 / 500 + P3 / 500 + P4 / 500 - ( P5 / 500 + P6 / 500 + P7 / 500 + P8 / 500 ) </t>
-  </si>
-  <si>
-    <t>P1</t>
-  </si>
-  <si>
-    <t>W + nP</t>
-  </si>
-  <si>
-    <t>Terrain Type</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>Is Not Water</t>
-  </si>
-  <si>
-    <t>W</t>
-  </si>
-  <si>
-    <t>P2</t>
-  </si>
-  <si>
-    <t>W + sP</t>
-  </si>
-  <si>
-    <t>P3</t>
-  </si>
-  <si>
-    <t>W + eP</t>
-  </si>
-  <si>
-    <t>P4</t>
-  </si>
-  <si>
-    <t>W + wP</t>
-  </si>
-  <si>
-    <t>Food Level</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>Y + 0.25 * P + 0.75 * C</t>
-  </si>
-  <si>
-    <t>Food/Pop Ratio</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>F - P</t>
-  </si>
-  <si>
-    <t>Attractivity</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>Y + R</t>
-  </si>
-  <si>
-    <t>Tile productivity</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>C / 25</t>
-  </si>
-  <si>
-    <t>Cropland Area</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>P5</t>
-  </si>
-  <si>
-    <t>nW + P</t>
-  </si>
-  <si>
-    <t>P6</t>
-  </si>
-  <si>
-    <t>sW + P</t>
-  </si>
-  <si>
-    <t>P7</t>
-  </si>
-  <si>
-    <t>eW + P</t>
-  </si>
-  <si>
-    <t>P8</t>
-  </si>
-  <si>
-    <t>wW + P</t>
+    <t xml:space="preserve">Variable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Symbol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Normal Space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Log Space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Population</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P * 1.009 + P1 / 500 + P2 / 500 + P3 / 500 + P4 / 500 - ( P5 / 500 + P6 / 500 + P7 / 500 + P8 / 500 ) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">P1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W + nP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terrain Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is Not Water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W + sP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W + eP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W + wP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Food Level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y + 0.25 * P + 0.75 * C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Food/Pop Ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F - P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attractivity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y + R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tile productivity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C / 25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cropland Area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nW + P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sW + P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eW + P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wW + P</t>
   </si>
 </sst>
 </file>
@@ -145,7 +150,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
   <fonts count="8">
@@ -320,19 +325,19 @@
   <dimension ref="1:17"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="4.30102040816327"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.4489795918367"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.0867346938776"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="83.6428571428571"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="81.5255102040816"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="71.2755102040816"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="109.59693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="4.18367346938776"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.1683673469388"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="82.6173469387755"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="80.5918367346939"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="70.4642857142857"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="108.397959183673"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/Project-Functions.xlsx
+++ b/Project-Functions.xlsx
@@ -5,144 +5,139 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="981" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="974" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
-  <si>
-    <t xml:space="preserve">Variable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Symbol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Normal Space</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Log Space</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Population</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P * 1.009 + P1 / 500 + P2 / 500 + P3 / 500 + P4 / 500 - ( P5 / 500 + P6 / 500 + P7 / 500 + P8 / 500 ) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">P1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W + nP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Terrain Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is Not Water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W + sP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W + eP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W + wP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Food Level</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y + 0.25 * P + 0.75 * C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Food/Pop Ratio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F - P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attractivity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y + R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tile productivity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C / 25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cropland Area</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nW + P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sW + P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eW + P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wW + P</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Symbol</t>
+  </si>
+  <si>
+    <t>Normal Space</t>
+  </si>
+  <si>
+    <t>Log Space</t>
+  </si>
+  <si>
+    <t>Population</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>P * 1.009 + P1 + P2 + P3 + P4 - ( P5 + P6 + P7 + P8 ) </t>
+  </si>
+  <si>
+    <t>Terrain Type</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>Is Not Water</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>W + nP * 0.1</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>W + sP * 0.1</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>W + eP * 0.1</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>W + wP * 0.1</t>
+  </si>
+  <si>
+    <t>Food Level</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Y + 0.25 * P + 0.75 * C</t>
+  </si>
+  <si>
+    <t>Food/Pop Ratio</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>F - P</t>
+  </si>
+  <si>
+    <t>Attractivity</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Y + R</t>
+  </si>
+  <si>
+    <t>Tile productivity</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>C / 25</t>
+  </si>
+  <si>
+    <t>Cropland Area</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>P5</t>
+  </si>
+  <si>
+    <t>nW + P * 0.1</t>
+  </si>
+  <si>
+    <t>P6</t>
+  </si>
+  <si>
+    <t>sW + P * 0.1</t>
+  </si>
+  <si>
+    <t>P7</t>
+  </si>
+  <si>
+    <t>eW + P * 0.1</t>
+  </si>
+  <si>
+    <t>P8</t>
+  </si>
+  <si>
+    <t>wW + P * 0.1</t>
   </si>
 </sst>
 </file>
@@ -150,7 +145,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
   <fonts count="8">
@@ -325,7 +320,7 @@
   <dimension ref="1:17"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -377,13 +372,10 @@
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="B3" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="C3" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="0" t="s">
         <v>8</v>
       </c>
     </row>
@@ -391,7 +383,7 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
@@ -402,10 +394,10 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="C5" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="E5" s="0" t="s">
         <v>12</v>
       </c>
     </row>
@@ -516,6 +508,9 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
       <c r="C14" s="0" t="s">
         <v>33</v>
       </c>
@@ -524,6 +519,9 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
       <c r="C15" s="0" t="s">
         <v>35</v>
       </c>
@@ -532,6 +530,9 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
       <c r="C16" s="0" t="s">
         <v>37</v>
       </c>
@@ -540,6 +541,9 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
       <c r="C17" s="0" t="s">
         <v>39</v>
       </c>

--- a/Project-Functions.xlsx
+++ b/Project-Functions.xlsx
@@ -5,139 +5,144 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="974" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
-    <t>Variable</t>
-  </si>
-  <si>
-    <t>Symbol</t>
-  </si>
-  <si>
-    <t>Normal Space</t>
-  </si>
-  <si>
-    <t>Log Space</t>
-  </si>
-  <si>
-    <t>Population</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>P * 1.009 + P1 + P2 + P3 + P4 - ( P5 + P6 + P7 + P8 ) </t>
-  </si>
-  <si>
-    <t>Terrain Type</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>Is Not Water</t>
-  </si>
-  <si>
-    <t>W</t>
-  </si>
-  <si>
-    <t>P1</t>
-  </si>
-  <si>
-    <t>W + nP * 0.1</t>
-  </si>
-  <si>
-    <t>P2</t>
-  </si>
-  <si>
-    <t>W + sP * 0.1</t>
-  </si>
-  <si>
-    <t>P3</t>
-  </si>
-  <si>
-    <t>W + eP * 0.1</t>
-  </si>
-  <si>
-    <t>P4</t>
-  </si>
-  <si>
-    <t>W + wP * 0.1</t>
-  </si>
-  <si>
-    <t>Food Level</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>Y + 0.25 * P + 0.75 * C</t>
-  </si>
-  <si>
-    <t>Food/Pop Ratio</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>F - P</t>
-  </si>
-  <si>
-    <t>Attractivity</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>Y + R</t>
-  </si>
-  <si>
-    <t>Tile productivity</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>C / 25</t>
-  </si>
-  <si>
-    <t>Cropland Area</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>P5</t>
-  </si>
-  <si>
-    <t>nW + P * 0.1</t>
-  </si>
-  <si>
-    <t>P6</t>
-  </si>
-  <si>
-    <t>sW + P * 0.1</t>
-  </si>
-  <si>
-    <t>P7</t>
-  </si>
-  <si>
-    <t>eW + P * 0.1</t>
-  </si>
-  <si>
-    <t>P8</t>
-  </si>
-  <si>
-    <t>wW + P * 0.1</t>
+    <t xml:space="preserve">Variable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Symbol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Normal Space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Log Space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Population</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P * 1.08 + P1 / 800 + P2 / 800 + P3 / 800 + P4 / 800 - ( P5 / 800 + P6 / 800 + P7 / 800 + P8 / 800 ) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terrain Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is Not Water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W + nP * 0.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W + sP * 0.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W + eP * 0.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W + wP * 0.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Food Level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y + 0.25 * P + 0.75 * C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Food/Pop Ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F - P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attractivity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y + R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tile productivity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C / 25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cropland Area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nW + P * 0.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sW + P * 0.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eW + P * 0.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wW + P * 0.5</t>
   </si>
 </sst>
 </file>
@@ -145,7 +150,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
   <fonts count="8">
@@ -320,19 +325,18 @@
   <dimension ref="1:17"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="4.18367346938776"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.1683673469388"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="82.6173469387755"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="80.5918367346939"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="70.4642857142857"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="108.397959183673"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="4.05102040816327"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.8979591836735"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="81.6683673469388"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="79.6428571428571"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="69.6581632653061"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="107.183673469388"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/Project-Functions.xlsx
+++ b/Project-Functions.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>#</t>
   </si>
@@ -44,7 +44,7 @@
     <t>P</t>
   </si>
   <si>
-    <t>P * 1.08 + P1n * 0.1 + P1s * 0.1 + P1e * 0.1 + P1w * 0.1 - ( P2n * 0.1 + P2s * 0.1 + P2e * 0.1 + P2w * 0.1 )</t>
+    <t>P * 1.008 + P1n * 0.1 + P1s * 0.1 + P1e * 0.1 + P1w * 0.1 - ( P2n * 0.1 + P2s * 0.1 + P2e * 0.1 + P2w * 0.1 )</t>
   </si>
   <si>
     <t>Terrain</t>
@@ -128,13 +128,10 @@
     <t>Y</t>
   </si>
   <si>
-    <t>t1 + t2</t>
-  </si>
-  <si>
     <t>t1</t>
   </si>
   <si>
-    <t>( t1n + t1s + t1e + t1w ) / 4.0</t>
+    <t>( t1 + t1n + t1s + t1e + t1w ) / 5.0</t>
   </si>
   <si>
     <t>t1n</t>
@@ -164,7 +161,7 @@
     <t>t2</t>
   </si>
   <si>
-    <t>( t2n + t2s + t2e + t2w ) / 4.0</t>
+    <t>( t2 + t2n + t2s + t2e + t2w ) / 5.0</t>
   </si>
   <si>
     <t>t2n</t>
@@ -324,7 +321,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
+      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -599,9 +596,6 @@
       <c r="C15" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="0" t="s">
-        <v>37</v>
-      </c>
       <c r="F15" s="0" t="n">
         <v>0</v>
       </c>
@@ -614,10 +608,10 @@
         <v>14</v>
       </c>
       <c r="C16" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="0" t="s">
         <v>38</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>39</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>1</v>
@@ -631,10 +625,10 @@
         <v>15</v>
       </c>
       <c r="C17" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="0" t="s">
         <v>40</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>41</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>1</v>
@@ -648,10 +642,10 @@
         <v>16</v>
       </c>
       <c r="C18" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="0" t="s">
         <v>42</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>43</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>1</v>
@@ -665,10 +659,10 @@
         <v>17</v>
       </c>
       <c r="C19" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="0" t="s">
         <v>44</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>45</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>1</v>
@@ -682,10 +676,10 @@
         <v>18</v>
       </c>
       <c r="C20" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="0" t="s">
         <v>46</v>
-      </c>
-      <c r="E20" s="0" t="s">
-        <v>47</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>1</v>
@@ -699,10 +693,10 @@
         <v>19</v>
       </c>
       <c r="C21" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="0" t="s">
         <v>48</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>49</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>1</v>
@@ -716,10 +710,10 @@
         <v>20</v>
       </c>
       <c r="C22" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" s="0" t="s">
         <v>50</v>
-      </c>
-      <c r="E22" s="0" t="s">
-        <v>51</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>1</v>
@@ -733,10 +727,10 @@
         <v>21</v>
       </c>
       <c r="C23" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="0" t="s">
         <v>52</v>
-      </c>
-      <c r="E23" s="0" t="s">
-        <v>53</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>1</v>
@@ -750,10 +744,10 @@
         <v>22</v>
       </c>
       <c r="C24" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="0" t="s">
         <v>54</v>
-      </c>
-      <c r="E24" s="0" t="s">
-        <v>55</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>1</v>
@@ -767,10 +761,10 @@
         <v>23</v>
       </c>
       <c r="C25" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" s="0" t="s">
         <v>56</v>
-      </c>
-      <c r="E25" s="0" t="s">
-        <v>57</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>1</v>
@@ -784,7 +778,7 @@
         <v>24</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>0</v>

--- a/Project-Functions.xlsx
+++ b/Project-Functions.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>#</t>
   </si>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>t1 + t2</t>
   </si>
   <si>
     <t>t1</t>
@@ -321,7 +324,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
+      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -596,6 +599,9 @@
       <c r="C15" s="0" t="s">
         <v>36</v>
       </c>
+      <c r="D15" s="0" t="s">
+        <v>37</v>
+      </c>
       <c r="F15" s="0" t="n">
         <v>0</v>
       </c>
@@ -608,10 +614,10 @@
         <v>14</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>1</v>
@@ -625,10 +631,10 @@
         <v>15</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>1</v>
@@ -642,10 +648,10 @@
         <v>16</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>1</v>
@@ -659,10 +665,10 @@
         <v>17</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>1</v>
@@ -676,10 +682,10 @@
         <v>18</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>1</v>
@@ -693,10 +699,10 @@
         <v>19</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>1</v>
@@ -710,10 +716,10 @@
         <v>20</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>1</v>
@@ -727,10 +733,10 @@
         <v>21</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>1</v>
@@ -744,10 +750,10 @@
         <v>22</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>1</v>
@@ -761,10 +767,10 @@
         <v>23</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>1</v>
@@ -778,7 +784,7 @@
         <v>24</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>0</v>
